--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1567485.434372194</v>
+        <v>1653537.271959671</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18146847.35069214</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2084488.700652242</v>
+        <v>606553.204079715</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5870868.603196444</v>
+        <v>6324290.671756094</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>125.3825206748366</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>74.9576103956267</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>141.724627601166</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>119.0616621442533</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -902,10 +904,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>241.728192514523</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>34.36101244027023</v>
       </c>
     </row>
     <row r="6">
@@ -1105,13 +1107,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>122.1591039832984</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1138,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>102.7176563887149</v>
       </c>
       <c r="E8" t="n">
-        <v>160.7737449035398</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1311,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>61.43755362246788</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>203.2613507217563</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1382,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>147.0946863398111</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1839737411083</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>49.1772265485036</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>73.01514676193501</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>243.447069711791</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>347.9118370306624</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>162.9119051916203</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>94.21878984361787</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>24.34318456170439</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.05512456153178</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,10 +3243,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>73.71535300152969</v>
       </c>
       <c r="V34" t="n">
-        <v>232.0689372763651</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>94.50264048967848</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244268</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>67.42894579208605</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>163.639577834006</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>389.1316729677222</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>46.62451826925461</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>35.47248331510109</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>136.7595314958034</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.7876113208424</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,13 +4194,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>161.1551102058692</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>866.1045910388293</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C2" t="n">
-        <v>832.0025222626566</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D2" t="n">
-        <v>800.1331414775052</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E2" t="n">
-        <v>770.3988006762045</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4358,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1828.15434655531</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>1423.298891966343</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.64988118368</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y2" t="n">
-        <v>888.3637574833331</v>
+        <v>1407.731200380218</v>
       </c>
     </row>
     <row r="3">
@@ -4419,16 +4421,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>1175.902039375362</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705994</v>
+        <v>867.0923738769416</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705994</v>
+        <v>694.5306623601665</v>
       </c>
       <c r="D4" t="n">
-        <v>767.4178585721221</v>
+        <v>528.6526695616892</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4516,22 +4518,22 @@
         <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2369.137331238581</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2090.704330491686</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1803.748822362116</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1531.722417948408</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1286.330663281821</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1058.910992595929</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.45039114996</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>757.3079183333834</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>321.3981335078279</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
         <v>53.40121652862856</v>
@@ -4577,7 +4579,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2449.178548755904</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.036085335214</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>1621.749961634868</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="6">
@@ -4653,19 +4655,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4753,19 +4755,19 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2347.54882637258</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V7" t="n">
-        <v>1841.696154939793</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.669750526085</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.277995859497</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
         <v>1324.277995859497</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116.189251973537</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C8" t="n">
-        <v>678.0467791569604</v>
+        <v>210.7177913537669</v>
       </c>
       <c r="D8" t="n">
-        <v>242.1369943314049</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>79.73927220661714</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>55.91224665622894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>55.91224665622894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>55.91224665622894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>55.49545728336894</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>685.6074456934142</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1372.363729575105</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>2059.120013456795</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2605.61879941539</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2774.772864168447</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2774.772864168447</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2774.772864168447</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2774.772864168447</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2774.772864168447</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2369.917409579481</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1950.774946158791</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1542.488822458445</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>561.6672022746617</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>455.210741111304</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>360.1204522578573</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>266.000037584811</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>182.6161992009726</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>97.23110946715647</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>55.49545728336894</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>55.49545728336894</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>742.2517411650596</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.823502035762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1601.562440667838</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1718.735218762178</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1655.279781210561</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1525.101137541162</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.764590541131</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.64707260313</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>964.324318336324</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>809.4568825752041</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.9711033544248</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>935.3900921253403</v>
+        <v>962.7013733912472</v>
       </c>
       <c r="C10" t="n">
-        <v>935.3900921253403</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D10" t="n">
-        <v>769.512099326863</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E10" t="n">
-        <v>599.7540955776003</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>423.0470415393565</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>257.4557665651842</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>117.5535922555587</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>142.0751424480588</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.8335970191944</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>835.0434787871554</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1294.527345968068</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.786149125713</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2156.455398351494</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.962292321836</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2672.155067186169</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2650.737245891541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2491.495877189537</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2245.616430767992</v>
+        <v>2464.746330752886</v>
       </c>
       <c r="U10" t="n">
-        <v>1967.183430021098</v>
+        <v>2186.313330005992</v>
       </c>
       <c r="V10" t="n">
-        <v>1680.227921891528</v>
+        <v>1899.357821876422</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.20151747782</v>
+        <v>1627.331417462714</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.809762811232</v>
+        <v>1381.939662796126</v>
       </c>
       <c r="Y10" t="n">
-        <v>935.3900921253403</v>
+        <v>1154.519992110234</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1940.187169983193</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1502.044697166616</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1066.13491234106</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>632.3601674993556</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>204.4927379085634</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>55.91224665622894</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91224665622894</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>55.49545728336894</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M11" t="n">
-        <v>55.49545728336894</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N11" t="n">
-        <v>742.2517411650596</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O11" t="n">
-        <v>1429.00802504675</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="P11" t="n">
-        <v>2115.764308928441</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="Q11" t="n">
-        <v>2605.61879941539</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2774.772864168447</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2774.772864168447</v>
+        <v>4392.546047943583</v>
       </c>
       <c r="U11" t="n">
-        <v>2774.772864168447</v>
+        <v>4133.3237452606</v>
       </c>
       <c r="V11" t="n">
-        <v>2774.772864168447</v>
+        <v>3770.706795194426</v>
       </c>
       <c r="W11" t="n">
-        <v>2774.772864168447</v>
+        <v>3365.851340605459</v>
       </c>
       <c r="X11" t="n">
-        <v>2774.772864168447</v>
+        <v>2946.70887718477</v>
       </c>
       <c r="Y11" t="n">
-        <v>2366.4867404681</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M12" t="n">
-        <v>55.49545728336894</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="N12" t="n">
-        <v>55.49545728336894</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="O12" t="n">
-        <v>374.0672181540718</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.823502035762</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1601.562440667838</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R12" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>902.8128421083566</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>730.2511305915815</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>564.3731377931042</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>394.6151340438415</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>217.9080800055977</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>217.9080800055977</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>144.1554065086936</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2650.737245891541</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2650.737245891541</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2404.857799469996</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.424798723101</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1839.469290593531</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1567.442886179823</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.051131513236</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1094.631460827344</v>
+        <v>1222.502226141345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1430.072047055477</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>991.9295742388999</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>746.0234432168888</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>746.0234432168888</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>746.0234432168888</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>344.6256118401527</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>55.49545728336894</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>55.49545728336894</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>742.2517411650596</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>1429.00802504675</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2115.764308928441</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2605.61879941539</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2691.120990352284</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2471.053763225323</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>2211.831460542339</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>1849.214510476166</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="W14" t="n">
-        <v>1849.214510476166</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>1430.072047055477</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1430.072047055477</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M15" t="n">
-        <v>742.2517411650596</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N15" t="n">
-        <v>1429.00802504675</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="O15" t="n">
-        <v>1429.00802504675</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P15" t="n">
-        <v>1601.562440667838</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1601.562440667838</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>905.9914943603002</v>
+        <v>863.1680818718469</v>
       </c>
       <c r="C16" t="n">
-        <v>733.4297828435251</v>
+        <v>690.6063703550718</v>
       </c>
       <c r="D16" t="n">
-        <v>567.5517900450478</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="E16" t="n">
-        <v>397.7937862957851</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="F16" t="n">
-        <v>221.0867322575413</v>
+        <v>348.0213235183507</v>
       </c>
       <c r="G16" t="n">
-        <v>55.49545728336894</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
-        <v>55.49545728336894</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.155067186169</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2653.915898143484</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2408.036451721939</v>
+        <v>2365.213039233486</v>
       </c>
       <c r="U16" t="n">
-        <v>2129.603450975044</v>
+        <v>2086.780038486591</v>
       </c>
       <c r="V16" t="n">
-        <v>1842.647942845475</v>
+        <v>1799.824530357022</v>
       </c>
       <c r="W16" t="n">
-        <v>1570.621538431767</v>
+        <v>1527.798125943313</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.229783765179</v>
+        <v>1282.406371276726</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.810113079287</v>
+        <v>1054.986700590834</v>
       </c>
     </row>
     <row r="17">
@@ -5519,22 +5521,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4986.778077699538</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5601,19 +5603,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
         <v>287.8657185439749</v>
@@ -5987,16 +5989,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6072,13 +6074,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6224,22 +6226,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6312,19 +6314,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G28" t="n">
-        <v>126.8499155856325</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="H28" t="n">
-        <v>126.8499155856325</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6555,7 +6557,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562604</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577831</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2543.461783934675</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2265.02878318778</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1978.07327505821</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1706.046870644502</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.655115977914</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1233.235445292023</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1978.350572171671</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>3135.398407382222</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P32" t="n">
         <v>4943.887948785924</v>
@@ -6777,28 +6779,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>1660.646436797299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>1660.646436797299</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P33" t="n">
-        <v>1660.646436797299</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1656.801388721157</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>842.8792965674086</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V34" t="n">
-        <v>1779.535745052583</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W34" t="n">
-        <v>1507.509340638875</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X34" t="n">
-        <v>1262.117585972288</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y34" t="n">
-        <v>1034.697915286396</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="35">
@@ -6941,22 +6943,22 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>936.6111322289576</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2093.658967439508</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.5388337745582</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C37" t="n">
-        <v>702.9771222577831</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S37" t="n">
-        <v>2623.463237557742</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T37" t="n">
-        <v>2377.583791136197</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U37" t="n">
-        <v>2099.150790389303</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V37" t="n">
-        <v>1812.195282259733</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W37" t="n">
-        <v>1540.168877846025</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X37" t="n">
-        <v>1294.777123179437</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y37" t="n">
-        <v>1067.357452493545</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="38">
@@ -7172,25 +7174,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.977298779172</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785925</v>
@@ -7260,10 +7262,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674049</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181421</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387798983</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7339,43 +7341,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173583</v>
+        <v>2650.810403918947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752038</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005143</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>2117.975449367832</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601644</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1261.82240387952</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C41" t="n">
-        <v>1261.82240387952</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D41" t="n">
-        <v>825.9126190539646</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E41" t="n">
-        <v>392.1378742122598</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F41" t="n">
-        <v>392.1378742122598</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G41" t="n">
-        <v>345.0424012130127</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91224665622894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K41" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L41" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M41" t="n">
-        <v>742.2517411650596</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N41" t="n">
-        <v>1372.363729575105</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>1372.363729575105</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>2059.120013456795</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2605.61879941539</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>2774.772864168447</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>2515.550561485464</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V41" t="n">
-        <v>2515.550561485464</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W41" t="n">
-        <v>2515.550561485464</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X41" t="n">
-        <v>2096.408098064775</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y41" t="n">
-        <v>1688.121974364428</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>561.6672022746617</v>
+        <v>3531.436949455168</v>
       </c>
       <c r="C42" t="n">
-        <v>455.210741111304</v>
+        <v>3424.98048829181</v>
       </c>
       <c r="D42" t="n">
-        <v>360.1204522578573</v>
+        <v>3329.890199438363</v>
       </c>
       <c r="E42" t="n">
-        <v>266.000037584811</v>
+        <v>3235.769784765317</v>
       </c>
       <c r="F42" t="n">
-        <v>182.6161992009726</v>
+        <v>3152.385946381479</v>
       </c>
       <c r="G42" t="n">
-        <v>97.23110946715647</v>
+        <v>3067.000856647663</v>
       </c>
       <c r="H42" t="n">
-        <v>55.49545728336894</v>
+        <v>3025.265204463875</v>
       </c>
       <c r="I42" t="n">
-        <v>55.49545728336894</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="J42" t="n">
-        <v>55.49545728336894</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="K42" t="n">
-        <v>55.49545728336894</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="L42" t="n">
-        <v>55.49545728336894</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="M42" t="n">
-        <v>55.49545728336894</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="N42" t="n">
-        <v>742.2517411650596</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="O42" t="n">
-        <v>1429.00802504675</v>
+        <v>3210.87008273707</v>
       </c>
       <c r="P42" t="n">
-        <v>1429.00802504675</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="Q42" t="n">
-        <v>1718.735218762178</v>
+        <v>4571.332187848344</v>
       </c>
       <c r="R42" t="n">
-        <v>1718.735218762178</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.279781210561</v>
+        <v>4625.049528391067</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.101137541162</v>
+        <v>4494.870884721669</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.764590541131</v>
+        <v>4318.534337721637</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.64707260313</v>
+        <v>4119.416819783636</v>
       </c>
       <c r="W42" t="n">
-        <v>964.324318336324</v>
+        <v>3934.09406551683</v>
       </c>
       <c r="X42" t="n">
-        <v>809.4568825752041</v>
+        <v>3779.22662975571</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.9711033544248</v>
+        <v>3652.740850534931</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>743.5714734063531</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>743.5714734063531</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>577.6934806078758</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9354768586131</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>231.2284228203693</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>195.3976315929944</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2650.737245891541</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2491.495877189537</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2245.616430767992</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.183430021098</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.227921891528</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.20151747782</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.809762811232</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>935.3900921253403</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1929.33083026285</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.188357446274</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1055.278572620718</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>621.5038277790131</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>193.6363981882209</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>193.6363981882209</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>55.49545728336894</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>742.2517411650596</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M44" t="n">
-        <v>1429.00802504675</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N44" t="n">
-        <v>2115.764308928441</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O44" t="n">
-        <v>2115.764308928441</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>2115.764308928441</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2605.61879941539</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2774.772864168447</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2774.772864168447</v>
+        <v>4395.976717054963</v>
       </c>
       <c r="U44" t="n">
-        <v>2774.772864168447</v>
+        <v>4136.75441437198</v>
       </c>
       <c r="V44" t="n">
-        <v>2774.772864168447</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="W44" t="n">
-        <v>2774.772864168447</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>2355.630400747758</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2355.630400747758</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J45" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K45" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L45" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2226509987966</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N45" t="n">
-        <v>1031.978934880487</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O45" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P45" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q45" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R45" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1134.55361789525</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>961.9919063784752</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>796.1139135799979</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>626.3559098307352</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>449.6488557924914</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>284.0575808183191</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>144.1554065086936</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.913698484165</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.03425206262</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>1988.601251315726</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1988.601251315726</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1716.574846902017</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1553.791907300129</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1326.372236614237</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O3" t="n">
-        <v>466.3240083888435</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8225,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O5" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>636.4767559697427</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>693.6932160421118</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8538,16 +8540,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>693.6932160421118</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>321.7896574451545</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8693,22 +8695,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>693.6932160421118</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>693.6932160421118</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>494.8025156433832</v>
+        <v>88.44681858647436</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>852.0369646460716</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>321.7896574451545</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>693.6932160421118</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,19 +8935,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>693.6932160421118</v>
+        <v>922.7723629271979</v>
       </c>
       <c r="O14" t="n">
-        <v>693.6932160421118</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>494.8025156433832</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9012,16 +9014,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>389.5575801148032</v>
       </c>
       <c r="P15" t="n">
-        <v>174.2973895162504</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>127.539329130751</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9483,16 +9485,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>187.4796750234296</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9720,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,10 +9889,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>404.4043982844096</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10203,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1015.482873487266</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1052.262060548195</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>363.368344515487</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>105.9132979316059</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,16 +10591,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>500.2430848324429</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10908,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11066,16 +11068,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>693.6932160421118</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N41" t="n">
-        <v>636.4767559697427</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>693.6932160421118</v>
+        <v>161.1527324371082</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.6537310256845</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>693.6932160421118</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>693.6932160421118</v>
+        <v>922.7723629271979</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>494.8025156433832</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11382,13 +11384,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>292.6537310256845</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N45" t="n">
-        <v>693.6932160421118</v>
+        <v>507.9139216242372</v>
       </c>
       <c r="O45" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>250.2891667231577</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>7.682581114583428</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>65.48800580459421</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>188.1036172655089</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>52.8950630124146</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>80.50874676570893</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>69.71657238081274</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>63.43016517136702</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>227.3655273957975</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>201.933317737896</v>
       </c>
       <c r="V34" t="n">
-        <v>52.01701577190875</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>63.14631452530482</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>90.22000922289725</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>120.4463752142678</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>42.41901400957767</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>350.7593347937141</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>128.4628789093295</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>149.4793215154125</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>11.0789435348494</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>81.78272691405246</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363591.8173978615</v>
+        <v>518775.0445379768</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363591.8173978615</v>
+        <v>518775.0445379768</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>553200.4633442198</v>
+        <v>553200.46334422</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>553200.4633442198</v>
+        <v>553200.46334422</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363591.8173978615</v>
+        <v>518775.0445379768</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363591.8173978615</v>
+        <v>518775.0445379768</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
+        <v>375303.1239232859</v>
+      </c>
+      <c r="D2" t="n">
         <v>375303.123923286</v>
       </c>
-      <c r="D2" t="n">
-        <v>375303.1239232859</v>
-      </c>
       <c r="E2" t="n">
-        <v>242394.5449319078</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="F2" t="n">
-        <v>242394.5449319077</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="G2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="I2" t="n">
         <v>368800.3088961465</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961465</v>
       </c>
       <c r="L2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
-        <v>368800.3088961466</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="N2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>242394.5449319077</v>
+        <v>345850.0296919846</v>
       </c>
       <c r="P2" t="n">
-        <v>242394.5449319077</v>
+        <v>345850.0296919845</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8131.675070562576</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>160221.1249513057</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6625.418585724987</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>108901.164504129</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>529.9631486551832</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="F4" t="n">
-        <v>529.9631486551832</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="G4" t="n">
+        <v>806.3323907826024</v>
+      </c>
+      <c r="H4" t="n">
         <v>806.3323907826023</v>
-      </c>
-      <c r="H4" t="n">
-        <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26442,22 +26444,22 @@
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
+        <v>806.3323907826023</v>
+      </c>
+      <c r="L4" t="n">
         <v>806.3323907826021</v>
       </c>
-      <c r="L4" t="n">
-        <v>806.3323907826023</v>
-      </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="O4" t="n">
-        <v>529.9631486551832</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="P4" t="n">
-        <v>529.9631486551832</v>
+        <v>756.1546847085236</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75804.14753536039</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36113.50544076708</v>
+        <v>-36113.5054407671</v>
       </c>
       <c r="C6" t="n">
+        <v>187586.1931432776</v>
+      </c>
+      <c r="D6" t="n">
         <v>187586.1931432777</v>
       </c>
-      <c r="D6" t="n">
-        <v>182466.136813234</v>
-      </c>
       <c r="E6" t="n">
-        <v>199688.0342478922</v>
+        <v>123162.8459531994</v>
       </c>
       <c r="F6" t="n">
-        <v>199688.0342478921</v>
+        <v>273828.5995249473</v>
       </c>
       <c r="G6" t="n">
-        <v>130054.6129482657</v>
+        <v>261185.9287269638</v>
       </c>
       <c r="H6" t="n">
-        <v>290275.7378995715</v>
+        <v>290275.7378995714</v>
       </c>
       <c r="I6" t="n">
         <v>290275.7378995714</v>
@@ -26546,22 +26548,22 @@
         <v>115624.3891818654</v>
       </c>
       <c r="K6" t="n">
+        <v>290275.7378995714</v>
+      </c>
+      <c r="L6" t="n">
         <v>290275.7378995715</v>
       </c>
-      <c r="L6" t="n">
-        <v>283650.3193138465</v>
-      </c>
       <c r="M6" t="n">
-        <v>290275.7378995715</v>
+        <v>164524.6495638808</v>
       </c>
       <c r="N6" t="n">
-        <v>290275.7378995715</v>
+        <v>290275.7378995716</v>
       </c>
       <c r="O6" t="n">
-        <v>199688.0342478921</v>
+        <v>273828.5995249473</v>
       </c>
       <c r="P6" t="n">
-        <v>199688.0342478921</v>
+        <v>273828.5995249472</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>693.6932160421118</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.17800943425483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>584.5672873426336</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.17800943425482</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.17800943425483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>584.5672873426336</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>289.5685181116458</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>329.2456520677164</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.33579611060415</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>124.358989813076</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27622,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.7088048787647</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27667,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>369.8422500230729</v>
       </c>
     </row>
     <row r="6">
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>161.9268490649755</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>328.833030588585</v>
       </c>
       <c r="E8" t="n">
-        <v>268.6632524897479</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>26.33579611060353</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>40.15930123557294</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30411,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -34787,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O3" t="n">
-        <v>466.3240083888435</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O5" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35179,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>636.4767559697427</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>693.6932160421118</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>693.6932160421118</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>321.7896574451545</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35337,7 +35339,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>693.6932160421118</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>693.6932160421118</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P11" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>494.8025156433832</v>
+        <v>88.44681858647436</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>852.0369646460716</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>321.7896574451545</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>693.6932160421118</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,22 +35655,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>693.6932160421118</v>
+        <v>922.7723629271979</v>
       </c>
       <c r="O14" t="n">
-        <v>693.6932160421118</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>494.8025156433832</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>389.5575801148032</v>
       </c>
       <c r="P15" t="n">
-        <v>174.2973895162504</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35899,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>127.539329130751</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>187.4796750234296</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>404.4043982844096</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36923,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1015.482873487266</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1052.262060548195</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>363.368344515487</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>105.9132979316059</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,16 +37311,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>500.2430848324429</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767492</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645625</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37786,22 +37788,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>693.6932160421118</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N41" t="n">
-        <v>636.4767559697427</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>693.6932160421118</v>
+        <v>161.1527324371082</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.6537310256845</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>693.6932160421118</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>693.6932160421118</v>
+        <v>922.7723629271979</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>494.8025156433832</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>292.6537310256845</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N45" t="n">
-        <v>693.6932160421118</v>
+        <v>507.9139216242372</v>
       </c>
       <c r="O45" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653537.271959671</v>
+        <v>1652931.184330773</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.204079715</v>
+        <v>606553.2040797163</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -673,10 +673,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.9576103956267</v>
+        <v>116.8382698095971</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -870,13 +870,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>119.0616621442533</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4356504767623</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -898,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>141.9821688656539</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>34.36101244027023</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>140.4342819615948</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>418.2942882004972</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>102.7176563887149</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1299,7 +1299,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>203.2613507217563</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>409.0867647799247</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1839737411083</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.1772265485036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1587,16 +1587,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>187.5234134555188</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>350.0087874154169</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>347.9118370306624</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.3456594571958</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>162.9119051916203</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>94.21878984361787</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>73.71535300152969</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244268</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>67.42894579208605</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.261241486324652e-12</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649921</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>92.96608628013203</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>389.1316729677222</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430581</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>92.96608628013203</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.7876113208424</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4039,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.4316298953097</v>
+        <v>1267.919211788425</v>
       </c>
       <c r="C2" t="n">
-        <v>543.2891570787331</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D2" t="n">
-        <v>511.4197762935816</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365254</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>1902.588421776288</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X2" t="n">
-        <v>1483.445958355598</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.731200380218</v>
+        <v>1290.178378232929</v>
       </c>
     </row>
     <row r="3">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>867.0923738769416</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>694.5306623601665</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>528.6526695616892</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>358.8946658124264</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
         <v>358.8946658124264</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4518,22 +4518,22 @@
         <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2369.137331238581</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2090.704330491686</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="V4" t="n">
-        <v>1803.748822362116</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1531.722417948408</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1286.330663281821</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>1058.910992595929</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.095648603258</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>539.5090696246305</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4579,7 +4579,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.103312462176</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.395219088166</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O6" t="n">
-        <v>1375.081325612185</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P6" t="n">
-        <v>1375.081325612185</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4749,16 +4749,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2347.54882637258</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>2069.115825625685</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
         <v>2069.115825625685</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>173.3508218145016</v>
       </c>
       <c r="C8" t="n">
-        <v>210.7177913537669</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4819,13 +4819,13 @@
         <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
         <v>1058.729261281022</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.7013733912472</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>790.1396618744722</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>624.2616690759949</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -4992,22 +4992,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2464.746330752886</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2186.313330005992</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1899.357821876422</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1627.331417462714</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1381.939662796126</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.519992110234</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G11" t="n">
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>1168.830065571713</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M11" t="n">
-        <v>2325.877900782264</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N11" t="n">
-        <v>3451.608884218711</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O11" t="n">
-        <v>4431.788550789018</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>4431.788550789018</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189628</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126521</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4392.546047943583</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4133.3237452606</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>3770.706795194426</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>3365.851340605459</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>2946.70887718477</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>937.2866943184646</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>937.2866943184646</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>937.2866943184646</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5181,22 +5181,22 @@
         <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154828</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>664.63055186622</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279762</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441784</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5235,16 +5235,16 @@
         <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1739.920385221641</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="W13" t="n">
-        <v>1467.893980807932</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X13" t="n">
-        <v>1222.502226141345</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1222.502226141345</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.409306699863</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.266833883286</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M14" t="n">
         <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.36257382733</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397637</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.78586499956</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316576</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="V14" t="n">
-        <v>4125.563562316576</v>
+        <v>4105.820788749547</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.137464305806</v>
+        <v>3700.965334160581</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.995000885117</v>
+        <v>3281.822870739892</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.70887718477</v>
+        <v>2873.536747039545</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>863.1680818718469</v>
+        <v>1048.655691403053</v>
       </c>
       <c r="C16" t="n">
-        <v>690.6063703550718</v>
+        <v>876.0939798862784</v>
       </c>
       <c r="D16" t="n">
-        <v>524.7283775565945</v>
+        <v>710.2159870878011</v>
       </c>
       <c r="E16" t="n">
-        <v>524.7283775565945</v>
+        <v>540.4579833385383</v>
       </c>
       <c r="F16" t="n">
-        <v>348.0213235183507</v>
+        <v>363.7509293002945</v>
       </c>
       <c r="G16" t="n">
-        <v>182.4300485441784</v>
+        <v>198.1596543261222</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2365.213039233486</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2086.780038486591</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1799.824530357022</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1527.798125943313</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1282.406371276726</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="Y16" t="n">
-        <v>1054.986700590834</v>
+        <v>1240.474310122041</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,46 +5521,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5709,16 +5709,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5752,13 +5752,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
         <v>1463.16863798718</v>
@@ -5828,22 +5828,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O21" t="n">
         <v>287.8657185439749</v>
@@ -5989,16 +5989,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>751.6989919312866</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>751.6989919312866</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6226,10 +6226,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>306.120802776629</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
         <v>306.120802776629</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3365.117609755799</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3026.677905440546</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2680.21284765304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3556.936228474786</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6539,25 +6539,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1978.350572171671</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3135.398407382222</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>843.1660143917137</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2239.339682523233</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1952.384174393664</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1680.357769979955</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6940,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>3738.23335274699</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3346.878440713113</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>3174.316729196338</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>3008.438736397861</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>4283.534889198289</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>4011.50848478458</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>3766.116730117992</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>3538.697059432101</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7207,19 +7207,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882657</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365882</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674049</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181421</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387798983</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
         <v>330.8229638057298</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2650.810403918947</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2404.930957497402</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497402</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367832</v>
+        <v>2005.426305625837</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954124</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.557290287536</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601644</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2188.014873871656</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1749.872401055079</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1356.810105128087</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>93.77009931885368</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L41" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M41" t="n">
-        <v>1038.631590390883</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815723</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U41" t="n">
-        <v>4209.215436132739</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V41" t="n">
-        <v>3846.598486066566</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W41" t="n">
-        <v>3441.743031477599</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X41" t="n">
-        <v>3022.60056805691</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y41" t="n">
-        <v>2614.314444356563</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455168</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.98048829181</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438363</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765317</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381479</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647663</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463875</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624333</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3051.328877624333</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>3051.328877624333</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.328877624333</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.328877624333</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>3051.328877624333</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>3210.87008273707</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848344</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.504965942684</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391067</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721669</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721637</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783636</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.09406551683</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.22662975571</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.740850534931</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.266136395785</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C43" t="n">
-        <v>771.7044248790099</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D43" t="n">
-        <v>605.8264320805326</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E43" t="n">
-        <v>436.0684283312698</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F43" t="n">
-        <v>259.361374293026</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885368</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.190540178969</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.311093757424</v>
+        <v>2586.213268067049</v>
       </c>
       <c r="U43" t="n">
-        <v>2167.878093010529</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V43" t="n">
-        <v>1880.92258488096</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W43" t="n">
-        <v>1608.896180467251</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.504425800664</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.084755114772</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
     <row r="44">
@@ -7642,58 +7642,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M44" t="n">
-        <v>1250.817934529405</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4395.976717054963</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>4136.75441437198</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>3774.137464305806</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W44" t="n">
-        <v>3774.137464305806</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,46 +7721,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1254.175078389668</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.266136395785</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790099</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805326</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312698</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
         <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N6" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8704,13 +8704,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>775.7508307391754</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.44681858647436</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>922.7723629271979</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>793.2096923716463</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>389.5575801148032</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9181,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>127.539329130751</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>404.4043982844096</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10351,16 +10351,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1052.262060548195</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,7 +10369,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10597,16 +10597,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>575.2670899541636</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>954.4055465374038</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1527324371082</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N44" t="n">
-        <v>922.7723629271979</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>507.9139216242372</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14.50199051495957</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.682581114583428</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>96.562539592755</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>72.02778736464177</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>52.8950630124146</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>35.1574931093334</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>80.50874676570893</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>69.71657238081274</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>201.933317737896</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>90.22000922289725</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>111.4236523045792</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>329.0704884999267</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>42.41901400957767</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>329.0704884999267</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>11.0789435348494</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>518775.0445379768</v>
+        <v>518775.0445379766</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>518775.0445379768</v>
+        <v>518775.0445379767</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>553200.46334422</v>
+        <v>553200.4633442198</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>518775.0445379768</v>
+        <v>518775.0445379766</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>518775.0445379768</v>
+        <v>518775.0445379766</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
-        <v>345850.0296919846</v>
+        <v>345850.0296919844</v>
       </c>
       <c r="G2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="I2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961465</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="N2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
+        <v>345850.0296919845</v>
+      </c>
+      <c r="P2" t="n">
         <v>345850.0296919846</v>
-      </c>
-      <c r="P2" t="n">
-        <v>345850.0296919845</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.753571748</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260779</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356908</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>756.1546847085236</v>
+        <v>756.1546847085234</v>
       </c>
       <c r="F4" t="n">
-        <v>756.1546847085236</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26447,19 +26447,19 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>756.1546847085236</v>
+        <v>756.1546847085233</v>
       </c>
       <c r="P4" t="n">
-        <v>756.1546847085236</v>
+        <v>756.1546847085233</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36113.5054407671</v>
+        <v>-36113.50544076711</v>
       </c>
       <c r="C6" t="n">
         <v>187586.1931432776</v>
@@ -26530,40 +26530,40 @@
         <v>187586.1931432777</v>
       </c>
       <c r="E6" t="n">
-        <v>123162.8459531994</v>
+        <v>123057.6563309447</v>
       </c>
       <c r="F6" t="n">
-        <v>273828.5995249473</v>
+        <v>273723.4099026925</v>
       </c>
       <c r="G6" t="n">
-        <v>261185.9287269638</v>
+        <v>261162.7043875811</v>
       </c>
       <c r="H6" t="n">
-        <v>290275.7378995714</v>
+        <v>290252.5135601888</v>
       </c>
       <c r="I6" t="n">
-        <v>290275.7378995714</v>
+        <v>290252.5135601888</v>
       </c>
       <c r="J6" t="n">
-        <v>115624.3891818654</v>
+        <v>115601.1648424827</v>
       </c>
       <c r="K6" t="n">
-        <v>290275.7378995714</v>
+        <v>290252.5135601888</v>
       </c>
       <c r="L6" t="n">
-        <v>290275.7378995715</v>
+        <v>290252.5135601888</v>
       </c>
       <c r="M6" t="n">
-        <v>164524.6495638808</v>
+        <v>164501.4252244982</v>
       </c>
       <c r="N6" t="n">
-        <v>290275.7378995716</v>
+        <v>290252.5135601889</v>
       </c>
       <c r="O6" t="n">
-        <v>273828.5995249473</v>
+        <v>273723.4099026926</v>
       </c>
       <c r="P6" t="n">
-        <v>273828.5995249472</v>
+        <v>273723.4099026927</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.2456520677164</v>
+        <v>287.364992653746</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>124.358989813076</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>15.21302026266341</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>289.568518111646</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27669,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>369.8422500230729</v>
       </c>
     </row>
     <row r="6">
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>102.9863699957344</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.742286579561437</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>328.833030588585</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>40.15930123557294</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-4.626503470622263e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30437,7 +30437,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N6" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521125</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831382</v>
+        <v>775.7508307391754</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.44681858647436</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>852.0369646460716</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35658,19 +35658,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>922.7723629271979</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>793.2096923716463</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>389.5575801148032</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35889,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35901,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>127.539329130751</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>205.9191540463125</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>404.4043982844096</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37071,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1052.262060548195</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37089,7 +37089,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,16 +37317,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>575.2670899541636</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>954.4055465374038</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1527324371082</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38025,10 +38025,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N44" t="n">
-        <v>922.7723629271979</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>507.9139216242372</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
